--- a/web/admin/downloads/123123111--20171103/123123111--20171103--1.xlsx
+++ b/web/admin/downloads/123123111--20171103/123123111--20171103--1.xlsx
@@ -356,7 +356,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -383,6 +383,11 @@
         <v>123</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>12123</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
